--- a/data/trans_bre/P23_1_R_2016_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R_2016_2023-Clase-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.59653420618672</v>
+        <v>-10.89885147324853</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.451589456098194</v>
+        <v>-8.076438026665695</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4285598430746299</v>
+        <v>-0.439130064958727</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4693653569878355</v>
+        <v>-0.4568289102343944</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.336364729714219</v>
+        <v>1.406740667620309</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07208727649249799</v>
+        <v>-0.1824528711259696</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.06950740654071662</v>
+        <v>0.07705372518411233</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.01194640185470464</v>
+        <v>-0.01216660637847063</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-0.1251854906033939</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.376461695940026</v>
+        <v>1.376461695940029</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.005008945946430271</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.07929400149498447</v>
+        <v>0.07929400149498464</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.981403124452378</v>
+        <v>-6.434189557622993</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.370727084708743</v>
+        <v>-3.79874519046472</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2162971333241063</v>
+        <v>-0.2379006886060024</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1737061772688857</v>
+        <v>-0.1912140190930921</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.810689396158723</v>
+        <v>6.53117695928158</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.358101049545881</v>
+        <v>6.20440630625686</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3125487733050543</v>
+        <v>0.3063172751114227</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4295921756563519</v>
+        <v>0.4055620116259659</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-11.11613681445486</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-11.65924143038019</v>
+        <v>-11.65924143038018</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.286419325289217</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.4643152394132801</v>
+        <v>-0.46431523941328</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-19.11697110845085</v>
+        <v>-19.19376348801723</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-17.22706367943532</v>
+        <v>-17.51310984253645</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.4651988937183124</v>
+        <v>-0.4619583444374638</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.6220196664166321</v>
+        <v>-0.644176026632832</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.779466745226978</v>
+        <v>-2.253485555014232</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.217836869472452</v>
+        <v>-5.996847620697261</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>-0.07300076850871291</v>
+        <v>-0.04119193944859323</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.2323377624502334</v>
+        <v>-0.2769453328526632</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-0.5580252520333617</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-4.923379431610453</v>
+        <v>-4.923379431610456</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.01593886111399619</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1671340728136645</v>
+        <v>-0.1671340728136646</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.839338889014943</v>
+        <v>-5.040794346009483</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.303166717048107</v>
+        <v>-8.545534822483775</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1317115602097771</v>
+        <v>-0.1369667026921616</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2906122376295146</v>
+        <v>-0.274679006694214</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.054007483400833</v>
+        <v>3.710252369954607</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.15715466723421</v>
+        <v>-0.6916531429097588</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1224095237452433</v>
+        <v>0.1144244672597481</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.04295109964729278</v>
+        <v>-0.02715324115646662</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>-9.200832904478567</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-11.85934284768646</v>
+        <v>-11.85934284768645</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>-0.2466968118118986</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-0.38157308036589</v>
+        <v>-0.3815730803658898</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.5868957894775</v>
+        <v>-14.7401729456736</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-16.48837593900111</v>
+        <v>-16.82791924906561</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.3579409896057504</v>
+        <v>-0.3571320960891763</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.481484353969193</v>
+        <v>-0.4778108324521926</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.042516383388329</v>
+        <v>-4.287075105069504</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-6.807285932435065</v>
+        <v>-7.033531983678769</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.1150105610929773</v>
+        <v>-0.1191784426600454</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.2472045972991838</v>
+        <v>-0.2499233876156756</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>-7.481657734673538</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>3.183536436567383</v>
+        <v>3.183536436567382</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.336977205791704</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.4950051154720238</v>
+        <v>0.4950051154720234</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-13.01831589734332</v>
+        <v>-13.133572098357</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.631466743496382</v>
+        <v>-2.868677920333013</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4867852304145178</v>
+        <v>-0.4946346350624315</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2646407968742912</v>
+        <v>-0.2484220402980695</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-2.501451364862021</v>
+        <v>-2.249248857244317</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.637139466160707</v>
+        <v>7.05650020068812</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1323329701636967</v>
+        <v>-0.123260315793234</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.322728944973814</v>
+        <v>2.414420203379739</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>-8.067136897930105</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-6.729738098882049</v>
+        <v>-6.729738098882046</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>-0.2512819385749952</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>-0.2849704884727301</v>
+        <v>-0.28497048847273</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.29554243190716</v>
+        <v>-10.37747470256232</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.660881760354998</v>
+        <v>-8.655729778658879</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.3052057214167478</v>
+        <v>-0.3124422322625134</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.3512288374496538</v>
+        <v>-0.3463872459634826</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-5.940063768668418</v>
+        <v>-5.924710351340455</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.885598837807459</v>
+        <v>-4.800012571951294</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>-0.191558817944997</v>
+        <v>-0.189617896148217</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.2162114855031803</v>
+        <v>-0.2117101340754775</v>
       </c>
     </row>
     <row r="25">
